--- a/biology/Médecine/Atélostéogenèse_de_type_II/Atélostéogenèse_de_type_II.xlsx
+++ b/biology/Médecine/Atélostéogenèse_de_type_II/Atélostéogenèse_de_type_II.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>At%C3%A9lost%C3%A9ogen%C3%A8se_de_type_II</t>
+          <t>Atélostéogenèse_de_type_II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’atélostéogenèse type 2 est un nanisme létal avec un faciès particulier. Le tableau clinique comprend par un raccourcissement des membres avec un crâne de taille normale, un pouce dévié rappelant l’aspect du pouce faisant de l’auto-stop, petit thorax avec un abdomen proéminent
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>At%C3%A9lost%C3%A9ogen%C3%A8se_de_type_II</t>
+          <t>Atélostéogenèse_de_type_II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La grossesse est souvent compliquée d’hydramnios
 Le nouveau-né meurt rapidement après la naissance par hypoplasie pulmonaire et/ou trachéomalacie
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>At%C3%A9lost%C3%A9ogen%C3%A8se_de_type_II</t>
+          <t>Atélostéogenèse_de_type_II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,13 +574,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Clinique
-Outre les signes cliniques, les radiographies osseuses permettent de retrouver des signes très évocateurs de la pathologie.
-Histologie
-Retrouve les signes d’absence de protéoglycanes sulfate dans le cartilage. Le défaut d’incorporation du protéoglycanes sulfate peut être mis en évidence par la culture de fibroblaste.
-Génétique
-Hybridation in situ par fluorescence permet le diagnostic dans 65 % des cas en mettant en évidence les cinq mutations les plus fréquentes du gène SLC26A2.
-Analyse séquentielle permet le diagnostic dans 90 % des cas.</t>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les signes cliniques, les radiographies osseuses permettent de retrouver des signes très évocateurs de la pathologie.
+</t>
         </is>
       </c>
     </row>
@@ -576,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>At%C3%A9lost%C3%A9ogen%C3%A8se_de_type_II</t>
+          <t>Atélostéogenèse_de_type_II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,10 +606,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Histologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Retrouve les signes d’absence de protéoglycanes sulfate dans le cartilage. Le défaut d’incorporation du protéoglycanes sulfate peut être mis en évidence par la culture de fibroblaste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Atélostéogenèse_de_type_II</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/At%C3%A9lost%C3%A9ogen%C3%A8se_de_type_II</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hybridation in situ par fluorescence permet le diagnostic dans 65 % des cas en mettant en évidence les cinq mutations les plus fréquentes du gène SLC26A2.
+Analyse séquentielle permet le diagnostic dans 90 % des cas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Atélostéogenèse_de_type_II</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/At%C3%A9lost%C3%A9ogen%C3%A8se_de_type_II</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Outre les maladies qui sont en rapport avec la mutation du gène SLC26A2, les autres nanismes létaux peuvent être discutées principalement :
 Nanisme thanatophore
@@ -605,68 +696,109 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>At%C3%A9lost%C3%A9ogen%C3%A8se_de_type_II</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Atélostéogenèse_de_type_II</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/At%C3%A9lost%C3%A9ogen%C3%A8se_de_type_II</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Diagnostic prénatal</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Grossesse à bas risque
-Le diagnostic échographique est possible
-Grossesse à haut risque
-Le diagnostic par hybridation in situ par fluorescence est possible après biopsie de trophoblaste ou amniocentèse si la mutation est connue chez les parents</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>At%C3%A9lost%C3%A9ogen%C3%A8se_de_type_II</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Grossesse à bas risque</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le diagnostic échographique est possible</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Atélostéogenèse_de_type_II</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/At%C3%A9lost%C3%A9ogen%C3%A8se_de_type_II</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diagnostic prénatal</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Grossesse à haut risque</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le diagnostic par hybridation in situ par fluorescence est possible après biopsie de trophoblaste ou amniocentèse si la mutation est connue chez les parents</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Atélostéogenèse_de_type_II</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/At%C3%A9lost%C3%A9ogen%C3%A8se_de_type_II</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site de renseignement sur les maladies rares et les médicaments orphelins
 (en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:www.ncbi.nlm.nih.gov
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
